--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T13:53:10+00:00</t>
+    <t>2025-05-20T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2460,7 +2460,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
+    <t>https://www.meddra.org</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -5951,17 +5951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="63.5" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="29.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.3125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="37.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5970,21 +5970,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="41.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="87.2109375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="244.98046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="20.09375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="74.76953125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="210.02734375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:40:38+00:00</t>
+    <t>2025-07-17T13:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:20:13+00:00</t>
+    <t>2025-07-21T12:46:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T12:46:15+00:00</t>
+    <t>2025-07-21T16:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:33:38+00:00</t>
+    <t>2025-07-21T16:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1966,7 +1966,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Sponsor, collaborateurs et autres parties / Sponsors, collaborators, and other parties </t>
+    <t>Sponsor, collaborateurs et autres parties / Sponsors, collaborators, and other parties</t>
   </si>
   <si>
     <t>Cette extension implemente l'élément associatedParty de R5 http://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.associatedParty. elle permet l'ajout des sponsors, collaborateurs et autres parties</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:40:50+00:00</t>
+    <t>2025-07-21T16:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
